--- a/Project/何佳/自动化测试/第二阶段/冒烟测试用例.xlsx
+++ b/Project/何佳/自动化测试/第二阶段/冒烟测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8484"/>
+    <workbookView windowWidth="18468" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -285,10 +285,10 @@
     <t>后台首页模块</t>
   </si>
   <si>
-    <t>官方动态功能</t>
+    <t>查看新增简历功能</t>
   </si>
   <si>
-    <t>1.登录后台管理 2.点击首页 3.点击官方动态中的“关于图片木马上传防护说明”</t>
+    <t>1.登录后台管理 2.点击首页 3.点击新增简历</t>
   </si>
   <si>
     <t>页面成功跳转</t>
@@ -420,15 +420,6 @@
     <t>发布成功</t>
   </si>
   <si>
-    <t>1.进入前台 2.点击普工 3.输入关键字：测试 4.点击搜索</t>
-  </si>
-  <si>
-    <t>检索成功，出现相应简历列表</t>
-  </si>
-  <si>
-    <t>1.进入前台 2.点击普工 3.点击地区条件：北京</t>
-  </si>
-  <si>
     <t>查看简历信息</t>
   </si>
   <si>
@@ -436,6 +427,15 @@
   </si>
   <si>
     <t>进入详细信息界面，查看成功</t>
+  </si>
+  <si>
+    <t>1.进入前台 2.点击普工 3.点击地区条件：北京</t>
+  </si>
+  <si>
+    <t>检索成功，出现相应简历列表</t>
+  </si>
+  <si>
+    <t>1.进入前台 2.点击普工 3.输入关键字：测试 4.点击搜索</t>
   </si>
   <si>
     <t>前台HR工具箱模块</t>
@@ -494,10 +494,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -515,8 +515,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -524,29 +553,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -560,37 +575,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -600,44 +584,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -652,8 +599,61 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -674,13 +674,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -692,19 +764,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -716,37 +776,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -758,103 +854,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -865,6 +865,54 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -887,16 +935,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -915,56 +965,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -973,10 +973,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -985,133 +985,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1502,8 +1502,8 @@
   <sheetPr/>
   <dimension ref="A1:XFD64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -67596,7 +67596,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" ht="28.8" spans="1:6">
+    <row r="29" spans="1:6">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -67887,7 +67887,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="43" ht="28.8" spans="1:6">
+    <row r="43" spans="1:6">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -67895,16 +67895,16 @@
         <v>130</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="44" ht="28.8" spans="1:6">
@@ -67918,16 +67918,16 @@
         <v>104</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>63</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" ht="28.8" spans="1:6">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -67935,16 +67935,16 @@
         <v>130</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="46" ht="30" customHeight="1" spans="1:6">
